--- a/classificacaoapolices.xlsx
+++ b/classificacaoapolices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brunofilipe.lobo\Documents\Code\realvidaseguros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F214A832-EFC3-49FC-9FE6-F28B45C40898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CFBAB4-D62E-4723-8809-B067EAA1D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A6F8AA7A-76E8-4413-9273-3DE994D0F211}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6F8AA7A-76E8-4413-9273-3DE994D0F211}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificação Produtos" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Classificação Produtos'!$A$1:$E$576</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2408,7 +2419,7 @@
   <dimension ref="A1:E576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5378,7 +5389,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>27</v>
       </c>
@@ -5395,7 +5406,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>27</v>
       </c>
@@ -5412,7 +5423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>27</v>
       </c>
@@ -5429,7 +5440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>27</v>
       </c>
@@ -5446,7 +5457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>27</v>
       </c>
@@ -5463,7 +5474,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>27</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>27</v>
       </c>
@@ -5497,7 +5508,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>28</v>
       </c>
@@ -5514,7 +5525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>28</v>
       </c>
@@ -5531,7 +5542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>28</v>
       </c>
@@ -5548,7 +5559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>28</v>
       </c>
@@ -5565,7 +5576,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>28</v>
       </c>
@@ -5582,7 +5593,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>28</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>28</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>28</v>
       </c>
@@ -5633,7 +5644,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>28</v>
       </c>
@@ -5650,7 +5661,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>28</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>28</v>
       </c>
@@ -5684,7 +5695,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>28</v>
       </c>
@@ -5701,7 +5712,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>28</v>
       </c>
@@ -5718,7 +5729,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>28</v>
       </c>
@@ -5735,7 +5746,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>28</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>28</v>
       </c>
@@ -5769,7 +5780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>28</v>
       </c>
@@ -5786,7 +5797,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>29</v>
       </c>
@@ -6959,7 +6970,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>47</v>
       </c>
@@ -6976,7 +6987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>47</v>
       </c>
@@ -6993,7 +7004,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>47</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>48</v>
       </c>
@@ -7027,7 +7038,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -7044,7 +7055,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>48</v>
       </c>
@@ -7061,7 +7072,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>48</v>
       </c>
@@ -7078,7 +7089,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>48</v>
       </c>
@@ -7095,7 +7106,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>48</v>
       </c>
@@ -7112,7 +7123,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -7129,7 +7140,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>48</v>
       </c>
@@ -7163,7 +7174,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>50</v>
       </c>
@@ -7180,7 +7191,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>51</v>
       </c>
@@ -7197,7 +7208,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>51</v>
       </c>
@@ -7214,7 +7225,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>51</v>
       </c>
@@ -7231,7 +7242,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>51</v>
       </c>
@@ -7248,7 +7259,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>51</v>
       </c>
@@ -7265,7 +7276,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>51</v>
       </c>
@@ -7282,7 +7293,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>51</v>
       </c>
@@ -7299,7 +7310,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>51</v>
       </c>
@@ -7316,7 +7327,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>51</v>
       </c>
@@ -7333,7 +7344,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>51</v>
       </c>
@@ -7350,7 +7361,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>51</v>
       </c>
@@ -7367,7 +7378,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>51</v>
       </c>
@@ -7384,7 +7395,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>51</v>
       </c>
@@ -7401,7 +7412,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>51</v>
       </c>
@@ -7418,7 +7429,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>51</v>
       </c>
@@ -7435,7 +7446,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>51</v>
       </c>
@@ -8013,7 +8024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>56</v>
       </c>
@@ -8030,7 +8041,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>56</v>
       </c>
@@ -8506,7 +8517,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>62</v>
       </c>
@@ -8523,7 +8534,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>62</v>
       </c>
@@ -8540,7 +8551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>62</v>
       </c>
@@ -8557,7 +8568,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>62</v>
       </c>
@@ -8574,7 +8585,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>62</v>
       </c>
@@ -8591,7 +8602,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>62</v>
       </c>
@@ -8608,7 +8619,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>62</v>
       </c>
@@ -8625,7 +8636,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>62</v>
       </c>
@@ -8642,7 +8653,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>62</v>
       </c>
@@ -8659,7 +8670,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>62</v>
       </c>
@@ -8676,7 +8687,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>62</v>
       </c>
@@ -8693,7 +8704,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>62</v>
       </c>
@@ -8710,7 +8721,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>62</v>
       </c>
@@ -8727,7 +8738,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>62</v>
       </c>
@@ -8744,7 +8755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>62</v>
       </c>
@@ -8761,7 +8772,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>62</v>
       </c>
@@ -8778,7 +8789,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>62</v>
       </c>
@@ -8795,7 +8806,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>64</v>
       </c>
@@ -8812,7 +8823,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>64</v>
       </c>
@@ -8829,7 +8840,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>64</v>
       </c>
@@ -8846,7 +8857,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>64</v>
       </c>
@@ -8863,7 +8874,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>64</v>
       </c>
@@ -8880,7 +8891,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>64</v>
       </c>
@@ -8897,7 +8908,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>64</v>
       </c>
@@ -8914,7 +8925,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>64</v>
       </c>
@@ -8931,7 +8942,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>64</v>
       </c>
@@ -8948,7 +8959,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>62</v>
       </c>
@@ -8965,7 +8976,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>62</v>
       </c>
@@ -8982,7 +8993,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>62</v>
       </c>
@@ -8999,7 +9010,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>62</v>
       </c>
@@ -9016,7 +9027,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>62</v>
       </c>
@@ -9033,7 +9044,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>62</v>
       </c>
@@ -9050,7 +9061,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>62</v>
       </c>
@@ -9424,7 +9435,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>67</v>
       </c>
@@ -9441,7 +9452,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>67</v>
       </c>
@@ -9458,7 +9469,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>67</v>
       </c>
@@ -9475,7 +9486,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>67</v>
       </c>
@@ -9492,7 +9503,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>68</v>
       </c>
@@ -9509,7 +9520,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>68</v>
       </c>
@@ -9526,7 +9537,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>68</v>
       </c>
@@ -9543,7 +9554,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>68</v>
       </c>
@@ -9560,7 +9571,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>68</v>
       </c>
@@ -10138,7 +10149,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>70</v>
       </c>
@@ -10155,7 +10166,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>70</v>
       </c>
@@ -10172,7 +10183,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>70</v>
       </c>
@@ -10189,7 +10200,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>70</v>
       </c>
@@ -10206,7 +10217,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>71</v>
       </c>
@@ -10223,7 +10234,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>71</v>
       </c>
@@ -10240,7 +10251,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>71</v>
       </c>
@@ -10257,7 +10268,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>71</v>
       </c>
@@ -10274,7 +10285,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>71</v>
       </c>
@@ -10291,7 +10302,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>71</v>
       </c>
@@ -10308,7 +10319,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>71</v>
       </c>
@@ -10325,7 +10336,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>71</v>
       </c>
@@ -10342,7 +10353,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>71</v>
       </c>
@@ -10359,7 +10370,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>71</v>
       </c>
@@ -10376,7 +10387,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>71</v>
       </c>
@@ -10393,7 +10404,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>71</v>
       </c>
@@ -10410,7 +10421,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>71</v>
       </c>
@@ -10427,7 +10438,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>71</v>
       </c>
@@ -10444,7 +10455,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>71</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>71</v>
       </c>
@@ -10478,7 +10489,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>71</v>
       </c>
@@ -10580,7 +10591,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>88</v>
       </c>
@@ -10597,7 +10608,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>88</v>
       </c>
@@ -10614,7 +10625,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>88</v>
       </c>
@@ -10631,7 +10642,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>88</v>
       </c>
@@ -10648,7 +10659,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>88</v>
       </c>
@@ -11362,7 +11373,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>91</v>
       </c>
@@ -12214,14 +12225,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E576" xr:uid="{CDB0F905-B318-40E1-97F4-7918C4779CBD}">
-    <filterColumn colId="0">
+    <filterColumn colId="3">
       <filters>
-        <filter val="91"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="45"/>
+        <filter val="Financeiro"/>
       </filters>
     </filterColumn>
   </autoFilter>
